--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>UiDemo_app\UiDemo.exe</t>
+  </si>
+  <si>
+    <t>StatusFilePath</t>
+  </si>
+  <si>
+    <t>Data\Output\Status.xlsx</t>
   </si>
 </sst>
 </file>
@@ -550,7 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -646,7 +652,14 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2806,7 +2819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
